--- a/flows/AMND_fund_flow_data.xlsx
+++ b/flows/AMND_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B908"/>
+  <dimension ref="A1:B924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9515,6 +9515,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
